--- a/CREST syndrome_vs_Scleroderma.xlsx
+++ b/CREST syndrome_vs_Scleroderma.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History of Present Illness (the" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medical and Surgical History, i" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Social History, Health Behavior" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vitals and Physical Exam" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results (labs, imaging, pr" sheetId="5" state="visible" r:id="rId5"/>
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of calcinosis cutis (calcium deposits in the skin)</t>
+          <t>Presence of calcinosis cutis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calcinosis cutis is a hallmark feature of CREST syndrome and is less commonly seen in Scleroderma.</t>
+          <t>Calcinosis cutis is a hallmark feature of CREST syndrome and is less commonly seen in diffuse scleroderma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rapid onset of widespread skin thickening and induration</t>
+          <t>Widespread skin thickening and induration</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rapidly progressive skin changes are more indicative of diffuse Scleroderma than CREST syndrome, which has a more gradual onset.</t>
+          <t>Widespread skin changes are more indicative of Scleroderma, particularly in the diffuse form, compared to the limited skin involvement in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Development of telangiectasia (small dilated blood vessels) on the face or hands</t>
+          <t>Limited skin involvement with sclerodactyly</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasia is more characteristic of CREST syndrome and is often absent in diffuse Scleroderma.</t>
+          <t>In CREST syndrome, skin changes are often limited to the fingers (sclerodactyly), whereas Scleroderma typically presents with more widespread skin thickening.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Presence of significant internal organ involvement (e.g., pulmonary fibrosis, renal crisis) early in the disease</t>
+          <t>Rapid onset of symptoms</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Early organ involvement is more characteristic of Scleroderma, while CREST syndrome typically has a more benign course.</t>
+          <t>Scleroderma often presents with a rapid progression of symptoms, while CREST syndrome typically has a more indolent course.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Onset of symptoms with significant skin thickening limited to the fingers and face</t>
+          <t>Raynaud's phenomenon occurring before other symptoms</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Limited skin involvement is typical in CREST syndrome, whereas Scleroderma usually presents with more widespread skin thickening.</t>
+          <t>Raynaud's phenomenon is often the first symptom in CREST syndrome, while in Scleroderma, it may not be as prominent or may occur later.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Onset of symptoms with significant joint pain and swelling</t>
+          <t>Significant joint pain and swelling</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arthralgia and arthritis are more commonly reported in Scleroderma, whereas CREST syndrome may have less joint involvement.</t>
+          <t>Joint involvement is more pronounced in Scleroderma, whereas CREST syndrome may have less severe musculoskeletal symptoms.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of esophageal dysmotility (difficulty swallowing) reported early in the disease course</t>
+          <t>Esophageal dysmotility with minimal gastrointestinal symptoms</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esophageal involvement is common in CREST syndrome and may occur earlier than in Scleroderma, where it can be more variable.</t>
+          <t>Esophageal involvement is common in CREST syndrome, often leading to dysmotility, while Scleroderma may present with more severe gastrointestinal manifestations.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Presence of digital ulcers or ischemic changes in fingers</t>
+          <t>Presence of anti-Scl-70 antibodies</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Digital ulcers are more frequently associated with Scleroderma due to vascular complications, while they are less common in CREST syndrome.</t>
+          <t>Anti-Scl-70 antibodies are more commonly associated with diffuse Scleroderma, while CREST syndrome is often linked with anti-centromere antibodies.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon (color changes in fingers or toes in response to cold or stress)</t>
+          <t>Pulmonary hypertension without significant interstitial lung disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a classic feature of CREST syndrome and is often present before other symptoms, while it can also occur in Scleroderma but is not as defining.</t>
+          <t>Pulmonary hypertension is more characteristic of CREST syndrome, whereas Scleroderma is more associated with interstitial lung disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of significant gastrointestinal symptoms, such as severe reflux or constipation</t>
+          <t>Gastrointestinal symptoms such as severe reflux or diarrhea</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gastrointestinal involvement can be more pronounced in Scleroderma, while CREST syndrome may have milder symptoms.</t>
+          <t>Severe gastrointestinal involvement is more characteristic of Scleroderma, while CREST syndrome may present with milder symptoms.</t>
         </is>
       </c>
     </row>
@@ -580,14 +580,147 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx A</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>History of esophageal dysmotility</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Esophageal involvement is more common in CREST syndrome, leading to symptoms like dysphagia, which is less prominent in diffuse scleroderma.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>History of renal crisis</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Renal crisis is a serious complication more commonly associated with diffuse scleroderma, whereas it is rare in CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Presence of calcinosis cutis</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Calcinosis is a hallmark of CREST syndrome and is less frequently observed in diffuse scleroderma.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Widespread skin thickening</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Diffuse scleroderma is characterized by extensive skin involvement, which is not typical in CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Limited skin involvement</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CREST syndrome typically presents with limited skin changes, while scleroderma often shows widespread skin thickening.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Presence of anti-Scl-70 antibodies</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Anti-Scl-70 antibodies are more frequently found in diffuse scleroderma, while CREST syndrome is often associated with anti-centromere antibodies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>History of pulmonary hypertension</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pulmonary hypertension is more commonly associated with CREST syndrome, whereas scleroderma may present with interstitial lung disease.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>History of gastrointestinal involvement beyond esophagus</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Diffuse scleroderma can lead to more extensive gastrointestinal tract involvement compared to the limited involvement seen in CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Use of calcium channel blockers</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calcium channel blockers are often used to manage Raynaud's phenomenon in CREST syndrome, while scleroderma may require different management strategies.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Use of immunosuppressive therapy</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Immunosuppressive medications are more commonly required in diffuse scleroderma due to its aggressive nature, while CREST syndrome may require less intensive treatment.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -646,7 +779,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Diffuse skin thickening is a hallmark of Scleroderma and is not typically seen in CREST syndrome.</t>
+          <t>Diffuse skin thickening is a hallmark of Scleroderma, distinguishing it from the limited skin involvement seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -663,12 +796,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Presence of Raynaud's phenomenon with severe digital ischemia</t>
+          <t>Presence of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>While Raynaud's can occur in both, severe digital ischemia is more indicative of Scleroderma.</t>
+          <t>While Raynaud's can occur in both, its severity and association with other systemic symptoms are more pronounced in Scleroderma.</t>
         </is>
       </c>
     </row>
@@ -680,7 +813,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A family history of CREST syndrome may indicate a genetic predisposition, which is more relevant to CREST than to Scleroderma.</t>
+          <t>A family history of CREST syndrome may indicate a genetic predisposition, which is more relevant to CREST than to diffuse Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -712,7 +845,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gastrointestinal issues are more prevalent and severe in Scleroderma compared to CREST syndrome.</t>
+          <t>Gastrointestinal symptoms are more severe and widespread in Scleroderma compared to CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -734,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is more commonly associated with Scleroderma than with CREST syndrome.</t>
+          <t>Interstitial lung disease is more commonly associated with Scleroderma, making it a distinguishing factor from CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -797,7 +930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This finding is indicative of diffuse Scleroderma, which presents with widespread skin involvement, unlike the limited skin involvement seen in CREST syndrome.</t>
+          <t>Widespread skin thickening is more indicative of Scleroderma, particularly the diffuse form, compared to the localized skin changes seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -809,17 +942,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>While both conditions can present with Raynaud's, it is more commonly associated with CREST syndrome, especially in the context of limited skin involvement.</t>
+          <t>While both conditions can present with Raynaud's, it is more commonly associated with CREST syndrome, especially in a milder form.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pulmonary fibrosis</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pulmonary fibrosis is more commonly associated with Scleroderma and indicates a more severe systemic involvement compared to CREST syndrome.</t>
+          <t>While telangiectasia can be present in both, it is more commonly associated with Scleroderma, especially in the context of systemic involvement.</t>
         </is>
       </c>
     </row>
@@ -831,61 +964,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of calcinosis cutis (calcium deposits in the skin) is a hallmark of CREST syndrome and is less frequently seen in diffuse Scleroderma.</t>
+          <t>The presence of calcifications in the skin is a hallmark of CREST syndrome and is less common in Scleroderma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Renal crisis</t>
+          <t>Joint contractures</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The occurrence of renal crisis is a serious complication more frequently seen in Scleroderma, distinguishing it from CREST syndrome.</t>
+          <t>Joint involvement leading to contractures is more prevalent in Scleroderma due to more extensive skin and soft tissue involvement.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Telangiectasia</t>
+          <t>Esophageal motility disorder</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Telangiectasia (small dilated blood vessels) is a common finding in CREST syndrome and is not typically associated with Scleroderma.</t>
+          <t>Dysphagia due to esophageal involvement is common in CREST syndrome, but the degree of motility disorder is often less severe than in diffuse Scleroderma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Myocardial involvement</t>
+          <t>Renal crisis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Myocardial involvement is more prevalent in Scleroderma, leading to potential cardiac complications, which are less common in CREST syndrome.</t>
+          <t>Acute renal crisis is a serious complication more commonly associated with Scleroderma, particularly the diffuse subtype, compared to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dysphagia</t>
+          <t>Pulmonary hypertension</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing) can occur in both conditions, but it is often more pronounced in CREST syndrome due to esophageal involvement.</t>
+          <t>While pulmonary hypertension can occur in both conditions, it is more frequently a prominent feature in CREST syndrome, often leading to earlier clinical recognition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility disorders</t>
+          <t>Gastrointestinal involvement with severe dysmotility</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While both conditions can have gastrointestinal involvement, Scleroderma is more likely to present with severe motility disorders affecting the entire GI tract.</t>
+          <t>Severe gastrointestinal dysmotility is more characteristic of Scleroderma, often leading to significant complications, whereas CREST syndrome typically has milder symptoms.</t>
         </is>
       </c>
     </row>
@@ -943,12 +1076,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Positive anti-Scl-70 antibodies</t>
+          <t>Positive anti-Scl-70 antibodies (anti-topoisomerase I)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Anti-Scl-70 antibodies are more commonly associated with diffuse scleroderma and are rarely found in CREST syndrome, making this a strong discriminator.</t>
+          <t>Anti-Scl-70 antibodies are more commonly associated with diffuse scleroderma and are rarely found in CREST syndrome, making this a strong indicator.</t>
         </is>
       </c>
     </row>
@@ -965,12 +1098,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Diffuse skin thickening on physical examination</t>
+          <t>Widespread skin thickening on physical examination</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Diffuse skin thickening is a classic finding in Scleroderma and is not characteristic of CREST syndrome, thus supporting Scleroderma.</t>
+          <t>Widespread skin involvement is characteristic of Scleroderma and is not seen in the limited form of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -992,41 +1125,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>While lung involvement can occur in both, interstitial lung disease is more commonly associated with diffuse scleroderma than with CREST syndrome.</t>
+          <t>Interstitial lung disease is more commonly associated with Scleroderma than with CREST syndrome, providing a clear distinction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Limited skin involvement on physical examination</t>
+          <t>Limited skin thickening</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CREST syndrome is characterized by limited skin changes, whereas Scleroderma typically presents with diffuse skin thickening.</t>
+          <t>The limited skin involvement in CREST syndrome contrasts with the more extensive skin thickening seen in Scleroderma, aiding in differentiation.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Renal crisis indicated by elevated creatinine levels</t>
+          <t>Renal crisis indicated by elevated creatinine</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Renal crisis is a serious complication more frequently seen in diffuse scleroderma, providing a strong indicator for this diagnosis.</t>
+          <t>Renal crisis is a serious complication more frequently seen in Scleroderma, whereas it is rare in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gastrointestinal motility disorders on imaging or motility studies</t>
+          <t>Gastrointestinal motility disorders on imaging</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gastrointestinal involvement is common in both, but the specific motility disorders are more characteristic of CREST syndrome.</t>
+          <t>Gastrointestinal issues are common in both, but the specific motility disorders seen in CREST syndrome are more distinctive.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1036,7 +1169,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cardiac complications are more severe and prevalent in Scleroderma compared to CREST syndrome, thus favoring Scleroderma.</t>
+          <t>Cardiac complications are more prevalent in Scleroderma, particularly in diffuse forms, compared to CREST syndrome.</t>
         </is>
       </c>
     </row>
